--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250929_235129.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250929_235129.xlsx
@@ -7889,7 +7889,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
